--- a/Data/MeteoData/Stations/ogd-smn_meta_data.xlsx
+++ b/Data/MeteoData/Stations/ogd-smn_meta_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\LEG_analysis\Data\MeteoData\Stations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5D504BB-E1E9-48A4-BEF5-8D846F488288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF90DAC3-23A4-4039-9C46-E6A0FD435EC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1760" yWindow="3200" windowWidth="34390" windowHeight="17410" activeTab="4" xr2:uid="{B9574FE2-8FD8-45E6-BD51-209E0069A50B}"/>
   </bookViews>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5177" uniqueCount="2252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5189" uniqueCount="2258">
   <si>
     <t>station_abbr</t>
   </si>
@@ -6838,6 +6838,24 @@
   </si>
   <si>
     <t>")</t>
+  </si>
+  <si>
+    <t>WindSpeedScalar10min</t>
+  </si>
+  <si>
+    <t>WindDirection</t>
+  </si>
+  <si>
+    <t>Wind direction; ten minutes mean in °</t>
+  </si>
+  <si>
+    <t>FoehnIndex</t>
+  </si>
+  <si>
+    <t>Foehn index; Code</t>
+  </si>
+  <si>
+    <t>WindSpeed10min_kmh</t>
   </si>
 </sst>
 </file>
@@ -6948,7 +6966,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -6983,6 +7001,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -26804,10 +26823,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FCE3962-0202-442B-87AE-E6E67D7807BD}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:X187"/>
+  <dimension ref="A1:X193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F191" sqref="F191"/>
+      <selection activeCell="B102" sqref="B102:K102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -28399,43 +28418,43 @@
       <c r="A102" t="s">
         <v>2197</v>
       </c>
-      <c r="B102" s="10" t="str">
+      <c r="B102" s="14" t="str">
         <f>MID($A102,P102,Q102)</f>
         <v>fkl010z0</v>
       </c>
-      <c r="C102" s="10" t="str">
+      <c r="C102" s="14" t="str">
         <f>MID($A103,T102,U102)</f>
         <v>WindSpeedScalar10min</v>
       </c>
-      <c r="D102" s="10" t="str">
+      <c r="D102" s="14" t="str">
         <f>MID($A100,W102,X102)</f>
         <v>Wind speed scalar; ten minutes mean in m/s</v>
       </c>
-      <c r="E102" s="9" t="str">
+      <c r="E102" s="22" t="str">
         <f>VLOOKUP($B102,ogd_smn_meta_parameters[],1,FALSE)</f>
         <v>fkl010z0</v>
       </c>
-      <c r="F102" s="8" t="str">
+      <c r="F102" s="20" t="str">
         <f>VLOOKUP($B102,ogd_smn_meta_parameters[],F$1,FALSE)</f>
         <v>Wind speed scalar; ten minutes mean in m/s</v>
       </c>
-      <c r="G102" s="8" t="str">
+      <c r="G102" s="20" t="str">
         <f>VLOOKUP($B102,ogd_smn_meta_parameters[],G$1,FALSE)</f>
         <v>Wind</v>
       </c>
-      <c r="H102" s="17" t="str">
+      <c r="H102" s="21" t="str">
         <f>VLOOKUP($B102,ogd_smn_meta_parameters[],H$1,FALSE)</f>
         <v>T</v>
       </c>
-      <c r="I102" s="17">
+      <c r="I102" s="21">
         <f>VLOOKUP($B102,ogd_smn_meta_parameters[],I$1,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="J102" s="17" t="str">
+      <c r="J102" s="21" t="str">
         <f>VLOOKUP($B102,ogd_smn_meta_parameters[],J$1,FALSE)</f>
         <v>Float</v>
       </c>
-      <c r="K102" s="17" t="str">
+      <c r="K102" s="21" t="str">
         <f>VLOOKUP($B102,ogd_smn_meta_parameters[],K$1,FALSE)</f>
         <v>m/s</v>
       </c>
@@ -29339,43 +29358,43 @@
       <c r="A162" t="s">
         <v>2227</v>
       </c>
-      <c r="B162" s="10" t="str">
+      <c r="B162" s="14" t="str">
         <f>MID($A162,P162,Q162)</f>
         <v>ods000z0</v>
       </c>
-      <c r="C162" s="10" t="str">
+      <c r="C162" s="14" t="str">
         <f>MID($A163,T162,U162)</f>
         <v>DiffuseRadiation</v>
       </c>
-      <c r="D162" s="10" t="str">
+      <c r="D162" s="14" t="str">
         <f>MID($A160,W162,X162)</f>
         <v>Diffuse radiation; ten minutes mean in W/m²</v>
       </c>
-      <c r="E162" s="9" t="str">
+      <c r="E162" s="22" t="str">
         <f>VLOOKUP($B162,ogd_smn_meta_parameters[],1,FALSE)</f>
         <v>ods000z0</v>
       </c>
-      <c r="F162" s="8" t="str">
+      <c r="F162" s="20" t="str">
         <f>VLOOKUP($B162,ogd_smn_meta_parameters[],F$1,FALSE)</f>
         <v>Diffuse radiation; ten minutes mean</v>
       </c>
-      <c r="G162" s="8" t="str">
+      <c r="G162" s="20" t="str">
         <f>VLOOKUP($B162,ogd_smn_meta_parameters[],G$1,FALSE)</f>
         <v>Radiation</v>
       </c>
-      <c r="H162" s="17" t="str">
+      <c r="H162" s="21" t="str">
         <f>VLOOKUP($B162,ogd_smn_meta_parameters[],H$1,FALSE)</f>
         <v>T</v>
       </c>
-      <c r="I162" s="17">
+      <c r="I162" s="21">
         <f>VLOOKUP($B162,ogd_smn_meta_parameters[],I$1,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="J162" s="17" t="str">
+      <c r="J162" s="21" t="str">
         <f>VLOOKUP($B162,ogd_smn_meta_parameters[],J$1,FALSE)</f>
         <v>Integer</v>
       </c>
-      <c r="K162" s="17" t="str">
+      <c r="K162" s="21" t="str">
         <f>VLOOKUP($B162,ogd_smn_meta_parameters[],K$1,FALSE)</f>
         <v>W/m²</v>
       </c>
@@ -29787,6 +29806,50 @@
     <row r="187" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>2240</v>
+      </c>
+    </row>
+    <row r="190" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="B190" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C190" t="s">
+        <v>2252</v>
+      </c>
+      <c r="D190" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="191" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="B191" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C191" t="s">
+        <v>2253</v>
+      </c>
+      <c r="D191" t="s">
+        <v>2254</v>
+      </c>
+    </row>
+    <row r="192" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="B192" t="s">
+        <v>2089</v>
+      </c>
+      <c r="C192" t="s">
+        <v>2255</v>
+      </c>
+      <c r="D192" t="s">
+        <v>2256</v>
+      </c>
+    </row>
+    <row r="193" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B193" t="s">
+        <v>1488</v>
+      </c>
+      <c r="C193" t="s">
+        <v>2257</v>
+      </c>
+      <c r="D193" t="s">
+        <v>1492</v>
       </c>
     </row>
   </sheetData>
